--- a/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,31</t>
+          <t>21,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>18,46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>17,05</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,06</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>20,34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>16,64</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,48</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>19,65</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>20,38</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>19,25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>16,84</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>18,98</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>20,86</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,35</t>
+          <t>20,3; 22,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,61</t>
+          <t>16,8; 20,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 20,12</t>
+          <t>12,98; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,08; 23,21</t>
+          <t>15,64; 18,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 15,69</t>
+          <t>18,33; 20,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 17,97</t>
+          <t>18,56; 22,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,57</t>
+          <t>12,73; 15,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,74; 20,6</t>
+          <t>15,32; 18,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,86</t>
+          <t>19,64; 21,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 17,86</t>
+          <t>17,92; 20,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,81; 20,14</t>
+          <t>13,21; 14,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 21,56</t>
+          <t>15,71; 17,84</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>22,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>18,89</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15,82</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>19,97</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>19,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,92</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>23,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>16,97</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,63</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>22,58</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>16,44</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23,84</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,54</t>
+          <t>23,13</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>18,12</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,72</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>21,47</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>18,05</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>23,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 18,48</t>
+          <t>21,58; 24,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 22,25</t>
+          <t>16,93; 20,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 21,01</t>
+          <t>14,52; 17,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,29</t>
+          <t>17,97; 22,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 17,46</t>
+          <t>21,95; 24,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 24,57</t>
+          <t>15,22; 18,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 17,96</t>
+          <t>14,47; 17,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,64; 25,06</t>
+          <t>20,68; 24,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 17,58</t>
+          <t>22,18; 24,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 22,8</t>
+          <t>16,68; 19,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 19,12</t>
+          <t>14,79; 16,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 24,46</t>
+          <t>20,13; 22,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>26,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>22,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>25,49</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,92</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,61</t>
+          <t>26,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>26,56</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>32,56</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,88</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,6</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>26,49</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>23,92</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>28,16</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>22,57</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>27,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,11; 19,25</t>
+          <t>25,04; 27,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,26; 29,19</t>
+          <t>20,33; 25,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 23,73</t>
+          <t>14,26; 17,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,89; 27,99</t>
+          <t>22,35; 29,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 22,05</t>
+          <t>24,96; 29,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,57; 38,59</t>
+          <t>22,95; 31,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 28,12</t>
+          <t>15,66; 20,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,85; 29,41</t>
+          <t>27,22; 38,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 19,55</t>
+          <t>25,41; 27,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 31,5</t>
+          <t>21,69; 26,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 24,31</t>
+          <t>15,21; 17,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 28,01</t>
+          <t>25,12; 31,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,88</t>
+          <t>24,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>20,49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>17,86</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>20,74</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,09</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>24,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,72</t>
+          <t>21,86</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,27</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,81</t>
+          <t>19,74</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>21,35</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>18,78</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>20,51</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>24,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 19,12</t>
+          <t>23,37; 25,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 20,44</t>
+          <t>18,82; 22,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 21,97</t>
+          <t>15,51; 17,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 26,22</t>
+          <t>15,79; 20,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 17,22</t>
+          <t>22,75; 25,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 22,28</t>
+          <t>18,65; 23,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,55</t>
+          <t>14,44; 16,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 25,96</t>
+          <t>17,15; 22,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 17,85</t>
+          <t>23,41; 25,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 20,63</t>
+          <t>19,5; 23,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 21,96</t>
+          <t>15,36; 16,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 25,65</t>
+          <t>17,21; 20,44</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>23,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>21,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>14,62</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>22,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>24,85</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,84</t>
+          <t>28,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>23,4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>20,87</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,27</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>28,64</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,19</t>
+          <t>26,61</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>22,79</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>18,59</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>24,39</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>27,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 17,15</t>
+          <t>22,1; 25,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 19,92</t>
+          <t>18,38; 24,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,95; 25,11</t>
+          <t>13,18; 16,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,19; 26,36</t>
+          <t>11,18; 19,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,24; 18,54</t>
+          <t>26,85; 29,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,49</t>
+          <t>21,58; 25,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 26,68</t>
+          <t>14,06; 17,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,35; 29,9</t>
+          <t>17,79; 24,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,04; 17,47</t>
+          <t>25,43; 27,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,32</t>
+          <t>21,01; 24,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,5</t>
+          <t>14,05; 16,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,22; 28,15</t>
+          <t>16,19; 21,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,57</t>
+          <t>17,73</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>20,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>30,02</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,11</t>
+          <t>25,76</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,53</t>
+          <t>22,61</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,24</t>
+          <t>26,22</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,16</t>
+          <t>24,06</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24,42</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,24</t>
+          <t>21,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 29,04</t>
+          <t>15,34; 17,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 25,62</t>
+          <t>14,97; 20,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 20,02</t>
+          <t>13,68; 26,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 16,11</t>
+          <t>15,95; 26,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 20,61</t>
+          <t>28,35; 31,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 26,21</t>
+          <t>24,24; 27,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,65; 27,43</t>
+          <t>6,65; 24,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,3; 29,85</t>
+          <t>18,85; 26,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 21,45</t>
+          <t>25,02; 27,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 24,78</t>
+          <t>22,64; 25,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,35; 25,61</t>
+          <t>10,96; 21,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 25,26</t>
+          <t>18,75; 25,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>23,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>20,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>15,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,77</t>
+          <t>18,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>24,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,83</t>
+          <t>22,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>15,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,28</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>24,25</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19,92</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,55</t>
+          <t>19,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,22; 17,38</t>
+          <t>22,98; 24,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 20,01</t>
+          <t>19,14; 20,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,09</t>
+          <t>14,93; 16,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 24,29</t>
+          <t>18,02; 20,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,5; 16,69</t>
+          <t>24,37; 25,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,71; 21,89</t>
+          <t>21,45; 23,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,73; 23,02</t>
+          <t>14,71; 15,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,73; 25,76</t>
+          <t>19,75; 21,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,89</t>
+          <t>23,86; 24,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,12; 20,67</t>
+          <t>20,68; 22,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 22,03</t>
+          <t>14,99; 15,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,22; 24,9</t>
+          <t>19,28; 20,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio</t>
+          <t>Número de años residiendo en el domicilio (tasa de respuesta: 97,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,41</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,33</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,38</t>
+          <t>18,94</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 22,43</t>
+          <t>18,74; 20,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 20,34</t>
+          <t>16,92; 20,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,6</t>
+          <t>15,66; 18,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 20,43</t>
+          <t>17,28; 19,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,56; 22,63</t>
+          <t>18,4; 22,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,09</t>
+          <t>15,26; 18,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 21,2</t>
+          <t>18,23; 19,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,59</t>
+          <t>17,98; 20,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 17,84</t>
+          <t>15,87; 17,97</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,99</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,24</t>
+          <t>21,49</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,13</t>
+          <t>21,43</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 24,59</t>
+          <t>20,01; 22,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 20,89</t>
+          <t>16,8; 20,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 22,01</t>
+          <t>17,91; 21,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 24,59</t>
+          <t>20,28; 22,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 18,96</t>
+          <t>15,34; 19,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 24,54</t>
+          <t>20,7; 24,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 24,17</t>
+          <t>20,47; 22,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 19,51</t>
+          <t>16,67; 19,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 22,89</t>
+          <t>20,11; 22,95</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,3</t>
+          <t>24,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,99</t>
+          <t>27,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,49</t>
+          <t>24,97</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 27,52</t>
+          <t>22,81; 25,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,72</t>
+          <t>20,4; 25,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,14</t>
+          <t>21,94; 29,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,96; 29,06</t>
+          <t>25,4; 29,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 31,07</t>
+          <t>22,38; 30,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,22; 38,51</t>
+          <t>27,2; 38,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,41; 27,58</t>
+          <t>23,98; 26,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,21</t>
+          <t>21,63; 26,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 31,28</t>
+          <t>25,32; 31,45</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,3</t>
+          <t>22,52</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 25,89</t>
+          <t>21,61; 23,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,82; 22,21</t>
+          <t>18,83; 22,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,49</t>
+          <t>15,91; 20,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,75; 25,12</t>
+          <t>21,3; 23,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,88</t>
+          <t>18,58; 24,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 22,26</t>
+          <t>17,32; 22,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,41; 25,12</t>
+          <t>21,71; 23,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 23,49</t>
+          <t>19,54; 23,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 20,44</t>
+          <t>17,17; 20,7</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,89</t>
+          <t>22,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,23</t>
+          <t>26,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,61</t>
+          <t>24,95</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,1; 25,7</t>
+          <t>20,76; 24,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,38; 24,64</t>
+          <t>18,71; 25,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,89</t>
+          <t>11,44; 20,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,85; 29,73</t>
+          <t>24,93; 27,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 25,19</t>
+          <t>21,59; 25,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,51</t>
+          <t>17,79; 24,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,43; 27,78</t>
+          <t>23,96; 26,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,01; 24,38</t>
+          <t>21,25; 24,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,41</t>
+          <t>16,21; 21,19</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,02</t>
+          <t>29,25</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,22</t>
+          <t>25,17</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,34; 17,95</t>
+          <t>14,27; 16,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,53</t>
+          <t>15,15; 20,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 26,66</t>
+          <t>15,66; 27,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,35; 31,32</t>
+          <t>27,91; 30,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,24; 27,45</t>
+          <t>23,98; 27,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,85; 26,54</t>
+          <t>19,04; 26,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,02; 27,4</t>
+          <t>24,0; 26,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,64; 25,6</t>
+          <t>22,55; 25,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,75; 25,34</t>
+          <t>18,69; 25,07</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,51</t>
+          <t>21,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,94</t>
+          <t>23,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,25</t>
+          <t>22,53</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,98; 24,1</t>
+          <t>21,06; 22,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,14; 20,92</t>
+          <t>19,16; 21,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,02; 20,07</t>
+          <t>17,92; 20,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,37; 25,47</t>
+          <t>22,8; 23,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,45; 23,64</t>
+          <t>21,49; 23,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,75; 21,93</t>
+          <t>19,88; 22,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,86; 24,66</t>
+          <t>22,08; 22,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,68; 22,43</t>
+          <t>20,68; 22,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,28; 20,68</t>
+          <t>19,16; 20,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17,05</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>19,68</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>18,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,05</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>19,86</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16,64</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>18,23</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>13,92</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>18,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,84</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>18,94</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,25</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,0</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,84</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>16,5; 20,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 18,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 15,13</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>18,74; 20,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,92; 20,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,98; 15,13</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>15,66; 18,55</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>18,03; 22,12</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 18,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 15,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>17,28; 19,3</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,4; 22,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>12,73; 15,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 18,1</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>17,52; 20,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 17,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 14,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>18,23; 19,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>17,98; 20,56</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>13,21; 14,85</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,87; 17,97</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>18,87</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19,97</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15,82</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>21,35</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,82</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,97</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>16,67</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22,58</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,63</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>21,49</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,63</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,58</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>17,96</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,47</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,72</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>21,43</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,12</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,72</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>21,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>16,84; 20,72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 21,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 17,25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>20,01; 22,95</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16,8; 20,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>14,52; 17,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>17,91; 21,93</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>15,13; 18,6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 24,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,47; 17,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>20,28; 22,81</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 19,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>14,47; 17,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20,7; 24,32</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>16,6; 19,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,11; 22,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 16,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>20,47; 22,41</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 19,68</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>14,79; 16,7</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>20,11; 22,95</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>22,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25,49</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>24,06</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>22,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,49</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>25,43</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32,56</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>27,27</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>26,56</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>32,56</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>22,93</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>24,97</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>23,92</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,48</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>28,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>19,55; 24,7</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 29,29</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 17,34</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>22,81; 25,27</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>20,4; 25,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>14,26; 17,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>21,94; 29,29</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>21,44; 29,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 38,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 20,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>25,4; 29,56</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>22,38; 30,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>15,66; 20,43</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>27,2; 38,49</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>20,59; 25,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 31,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 17,85</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>23,98; 26,03</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>21,63; 26,38</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,21; 17,85</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>25,32; 31,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>19,4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,86</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>22,64</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17,86</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,46</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19,74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>22,4</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>21,86</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,6</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,74</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>18,96</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,78</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>22,52</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>21,35</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,11</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>18,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,79; 21,27</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 20,46</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 17,71</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>21,61; 23,86</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>18,83; 22,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>15,51; 17,71</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>15,91; 20,46</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>16,9; 19,94</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17,32; 22,41</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 16,79</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>21,3; 23,57</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>18,58; 24,1</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>14,44; 16,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 22,41</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>17,78; 20,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 20,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 16,94</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>21,71; 23,29</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>19,54; 23,49</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,36; 16,94</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 20,7</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>20,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>22,6</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>21,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,76</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,62</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>22,22</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,87</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>26,43</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,4</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20,87</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>21,6</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,59</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>24,95</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22,79</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,23</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>18,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17,85; 23,76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 20,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 16,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>20,76; 24,26</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 25,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>13,18; 16,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>11,44; 20,14</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>20,42; 24,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 24,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 17,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>24,93; 27,95</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>21,59; 25,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 17,4</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 24,71</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>20,05; 23,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 21,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 16,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>23,96; 26,13</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>21,25; 24,57</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>14,05; 16,4</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,21; 21,19</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>16,14</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20,25</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18,72</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>15,48</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,73</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,72</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>20,25</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>25,34</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22,61</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,64</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>29,25</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,76</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,64</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,61</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>23,44</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21,75</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,39</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>25,17</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>24,06</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,39</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>21,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>13,39; 19,32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 27,13</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 26,2</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>14,27; 16,81</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,15; 20,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>13,68; 26,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,66; 27,13</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>23,6; 26,92</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 26,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 24,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>27,91; 30,74</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>23,98; 27,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 24,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,04; 26,69</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>21,91; 25,06</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 25,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 21,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>24,0; 26,37</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>22,55; 25,66</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 21,6</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,69; 25,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>19,31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18,94</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>21,58</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>20,03</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15,47</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>18,94</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>21,27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20,87</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>23,38</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>22,41</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>15,34</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>20,87</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>20,31</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,95</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15,4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>22,53</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>21,34</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,4</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>19,95</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>18,43; 20,26</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 20,15</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 16,06</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>21,06; 22,13</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>19,16; 21,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>14,93; 16,06</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,92; 20,15</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>20,43; 22,04</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 22,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 15,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>22,8; 23,92</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>21,49; 23,62</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>14,71; 15,94</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,88; 22,06</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>19,67; 20,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 20,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 15,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>22,08; 22,91</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>20,68; 22,35</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>14,99; 15,84</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,16; 20,71</t>
         </is>
       </c>
     </row>
